--- a/Hourly_emissions/Data/Sunrise_Sunset_Daylength_Serbia.xlsx
+++ b/Hourly_emissions/Data/Sunrise_Sunset_Daylength_Serbia.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\Hourly_emissions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\Hourly_emissions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Oct" sheetId="10" r:id="rId10"/>
     <sheet name="Nov" sheetId="11" r:id="rId11"/>
     <sheet name="Dec" sheetId="12" r:id="rId12"/>
+    <sheet name="Sum" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1213">
   <si>
     <t>Sunrise/Sunset</t>
   </si>
@@ -25926,7 +25927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -25994,42 +25995,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -26053,6 +26018,56 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -26337,7 +26352,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26350,86 +26365,86 @@
       <c r="A1" s="11">
         <v>2015</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="30"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -27704,6 +27719,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -27711,18 +27738,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27733,8 +27748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27743,86 +27758,86 @@
       <c r="A1" s="11">
         <v>2015</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>933</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="30"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -28112,7 +28127,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
+      <c r="A11" s="30">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -29055,48 +29070,60 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35">
+      <c r="A34" s="23">
         <v>31</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="24" t="s">
         <v>1024</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="24" t="s">
         <v>1025</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="25">
         <v>0.4268055555555556</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="26">
         <v>0.19097222222222221</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="27">
         <v>0.75486111111111109</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="27">
         <v>0.21458333333333335</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I34" s="27">
         <v>0.73125000000000007</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="27">
         <v>0.23819444444444446</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34" s="27">
         <v>0.70763888888888893</v>
       </c>
-      <c r="L34" s="40" t="s">
+      <c r="L34" s="28" t="s">
         <v>1026</v>
       </c>
-      <c r="M34" s="41">
+      <c r="M34" s="29">
         <v>148.52500000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -29104,18 +29131,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29125,8 +29140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29135,86 +29150,86 @@
       <c r="A1" s="11">
         <v>2015</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>1027</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="30"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -30406,48 +30421,60 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35">
+      <c r="A33" s="23">
         <v>30</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="24" t="s">
         <v>1125</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="24" t="s">
         <v>1123</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="25">
         <v>0.37885416666666666</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="24" t="s">
         <v>663</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="26">
         <v>0.21458333333333335</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="27">
         <v>0.73819444444444438</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="27">
         <v>0.2388888888888889</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="27">
         <v>0.71388888888888891</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="27">
         <v>0.2638888888888889</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="27">
         <v>0.68888888888888899</v>
       </c>
-      <c r="L33" s="40" t="s">
+      <c r="L33" s="28" t="s">
         <v>1126</v>
       </c>
-      <c r="M33" s="41">
+      <c r="M33" s="29">
         <v>147.542</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -30455,18 +30482,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30476,8 +30491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30489,86 +30504,86 @@
       <c r="A1" s="11">
         <v>2015</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>1127</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="30"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -31843,6 +31858,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -31850,19 +31877,1857 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C366"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
+        <v>0.36927083333333338</v>
+      </c>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="46">
+        <v>0.36987268518518518</v>
+      </c>
+      <c r="C3" s="43"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>0.37053240740740739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
+        <v>0.37122685185185184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>0.37199074074074073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
+        <v>0.37278935185185186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>0.37364583333333329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
+        <v>0.3745486111111111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <v>0.37549768518518517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="46">
+        <v>0.37649305555555551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <v>0.37753472222222223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="46">
+        <v>0.37862268518518521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <v>0.37975694444444441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
+        <v>0.38092592592592589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <v>0.38214120370370369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46">
+        <v>0.38340277777777776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45">
+        <v>0.38469907407407411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46">
+        <v>0.38603009259259258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="45">
+        <v>0.38739583333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="46">
+        <v>0.38880787037037035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45">
+        <v>0.39025462962962965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46">
+        <v>0.39173611111111112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45">
+        <v>0.39324074074074072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46">
+        <v>0.39478009259259261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45">
+        <v>0.39635416666666662</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46">
+        <v>0.39796296296296302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45">
+        <v>0.39959490740740744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="46">
+        <v>0.40126157407407409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45">
+        <v>0.40295138888888887</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="46">
+        <v>0.40466435185185184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="47">
+        <v>0.40640046296296295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45">
+        <v>0.40815972222222219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="46">
+        <v>0.40995370370370371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="45">
+        <v>0.41175925925925921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="46">
+        <v>0.41358796296296302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45">
+        <v>0.41543981481481485</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="46">
+        <v>0.41731481481481486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45">
+        <v>0.41920138888888886</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="46">
+        <v>0.42111111111111116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="45">
+        <v>0.42303240740740744</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="46">
+        <v>0.4249768518518518</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45">
+        <v>0.42693287037037037</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="46">
+        <v>0.42891203703703701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45">
+        <v>0.43089120370370365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="46">
+        <v>0.43289351851851854</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45">
+        <v>0.43490740740740735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="46">
+        <v>0.43693287037037037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45">
+        <v>0.43896990740740738</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="46">
+        <v>0.44101851851851853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45">
+        <v>0.44307870370370367</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="46">
+        <v>0.44515046296296296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="45">
+        <v>0.44723379629629628</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="46">
+        <v>0.44931712962962966</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="45">
+        <v>0.45141203703703708</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="46">
+        <v>0.45351851851851849</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="45">
+        <v>0.455625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="46">
+        <v>0.45774305555555556</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="45">
+        <v>0.45986111111111111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="48">
+        <v>0.4619907407407407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="45">
+        <v>0.46413194444444444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="45">
+        <v>0.46627314814814813</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="45">
+        <v>0.46841435185185182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="46">
+        <v>0.47056712962962965</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="45">
+        <v>0.47271990740740738</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="46">
+        <v>0.47487268518518522</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="45">
+        <v>0.47703703703703698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="46">
+        <v>0.47920138888888886</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="45">
+        <v>0.48136574074074073</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="46">
+        <v>0.48353009259259255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="45">
+        <v>0.48570601851851852</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="46">
+        <v>0.48788194444444444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="45">
+        <v>0.49005787037037035</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="46">
+        <v>0.49223379629629632</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="45">
+        <v>0.49440972222222218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="46">
+        <v>0.49658564814814815</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="45">
+        <v>0.49877314814814816</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="46">
+        <v>0.50094907407407407</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="45">
+        <v>0.50313657407407408</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="46">
+        <v>0.50531249999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="45">
+        <v>0.50749999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="46">
+        <v>0.50967592592592592</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="45">
+        <v>0.51185185185185189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="46">
+        <v>0.51402777777777775</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="45">
+        <v>0.51620370370370372</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="46">
+        <v>0.51837962962962958</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="45">
+        <v>0.52055555555555555</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="46">
+        <v>0.52271990740740748</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="46">
+        <v>0.52488425925925919</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="45">
+        <v>0.52706018518518516</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="48">
+        <v>0.52921296296296294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="45">
+        <v>0.53137731481481476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="46">
+        <v>0.53353009259259265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="45">
+        <v>0.53568287037037032</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="46">
+        <v>0.53782407407407407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="45">
+        <v>0.53997685185185185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="46">
+        <v>0.54210648148148144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="45">
+        <v>0.54424768518518518</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="46">
+        <v>0.54637731481481489</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="45">
+        <v>0.54849537037037044</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="46">
+        <v>0.55061342592592599</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="45">
+        <v>0.5527199074074074</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="46">
+        <v>0.55482638888888891</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="45">
+        <v>0.55693287037037031</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="46">
+        <v>0.55901620370370375</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="45">
+        <v>0.56109953703703697</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="46">
+        <v>0.5631828703703704</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="45">
+        <v>0.56524305555555554</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="46">
+        <v>0.56730324074074068</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="45">
+        <v>0.56935185185185189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="46">
+        <v>0.57138888888888884</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="45">
+        <v>0.57341435185185186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="46">
+        <v>0.57543981481481488</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="45">
+        <v>0.5774421296296296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="46">
+        <v>0.57943287037037039</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="45">
+        <v>0.58141203703703703</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="46">
+        <v>0.58337962962962964</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="45">
+        <v>0.58533564814814809</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="46">
+        <v>0.58728009259259262</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="45">
+        <v>0.58920138888888884</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="48">
+        <v>0.59111111111111114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="45">
+        <v>0.59299768518518514</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="46">
+        <v>0.59487268518518521</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="45">
+        <v>0.59673611111111113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="46">
+        <v>0.59857638888888887</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="45">
+        <v>0.60039351851851852</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="46">
+        <v>0.60219907407407403</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="45">
+        <v>0.60398148148148145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="46">
+        <v>0.6057407407407408</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="45">
+        <v>0.60747685185185185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="46">
+        <v>0.60920138888888886</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="45">
+        <v>0.61089120370370364</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="46">
+        <v>0.61255787037037035</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="45">
+        <v>0.61420138888888887</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="46">
+        <v>0.6158217592592593</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="45">
+        <v>0.6174074074074074</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="46">
+        <v>0.61896990740740743</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="45">
+        <v>0.62050925925925926</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="46">
+        <v>0.62201388888888887</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="45">
+        <v>0.62349537037037039</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="46">
+        <v>0.62493055555555554</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="45">
+        <v>0.62634259259259262</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="46">
+        <v>0.62771990740740746</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="45">
+        <v>0.62906249999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="46">
+        <v>0.6303819444444444</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="45">
+        <v>0.63165509259259256</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="46">
+        <v>0.63288194444444446</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="45">
+        <v>0.63408564814814816</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="46">
+        <v>0.6352430555555556</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="45">
+        <v>0.6363657407407407</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="46">
+        <v>0.63745370370370369</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="47">
+        <v>0.63848379629629626</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="45">
+        <v>0.63949074074074075</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="46">
+        <v>0.64043981481481482</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="45">
+        <v>0.64135416666666667</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="46">
+        <v>0.64222222222222225</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="45">
+        <v>0.64304398148148145</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="46">
+        <v>0.64383101851851854</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="45">
+        <v>0.64456018518518521</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="46">
+        <v>0.64524305555555561</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="45">
+        <v>0.64587962962962964</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="46">
+        <v>0.6464699074074074</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="45">
+        <v>0.64701388888888889</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="46">
+        <v>0.64751157407407411</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="45">
+        <v>0.64795138888888892</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="46">
+        <v>0.64834490740740736</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="45">
+        <v>0.64869212962962963</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="46">
+        <v>0.64898148148148149</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="45">
+        <v>0.64922453703703698</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="46">
+        <v>0.6494212962962963</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="45">
+        <v>0.64956018518518521</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="46">
+        <v>0.64964120370370371</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="45">
+        <v>0.64968749999999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="46">
+        <v>0.64967592592592593</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="45">
+        <v>0.64960648148148148</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="46">
+        <v>0.64949074074074076</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="45">
+        <v>0.64932870370370377</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="46">
+        <v>0.64910879629629636</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="45">
+        <v>0.64884259259259258</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="46">
+        <v>0.64851851851851849</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="45">
+        <v>0.64814814814814814</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="48">
+        <v>0.64773148148148152</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="45">
+        <v>0.64726851851851852</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="46">
+        <v>0.64674768518518522</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="45">
+        <v>0.64619212962962969</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="46">
+        <v>0.64557870370370374</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="45">
+        <v>0.64491898148148141</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="46">
+        <v>0.64421296296296293</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="45">
+        <v>0.64346064814814818</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="46">
+        <v>0.64266203703703706</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="45">
+        <v>0.64181712962962967</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="46">
+        <v>0.64093750000000005</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="45">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="46">
+        <v>0.6390393518518519</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="45">
+        <v>0.63802083333333337</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="46">
+        <v>0.63696759259259261</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="45">
+        <v>0.63587962962962963</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="46">
+        <v>0.63474537037037038</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="45">
+        <v>0.6335763888888889</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="46">
+        <v>0.63236111111111104</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="45">
+        <v>0.63112268518518522</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="46">
+        <v>0.62983796296296302</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="45">
+        <v>0.62853009259259263</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="46">
+        <v>0.62717592592592586</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="45">
+        <v>0.62579861111111112</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="46">
+        <v>0.62438657407407405</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="45">
+        <v>0.62293981481481475</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="46">
+        <v>0.62146990740740737</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="45">
+        <v>0.61996527777777777</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="46">
+        <v>0.61843749999999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="45">
+        <v>0.61687499999999995</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="46">
+        <v>0.61528935185185185</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="47">
+        <v>0.61368055555555556</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="45">
+        <v>0.61204861111111108</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="46">
+        <v>0.61039351851851853</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="45">
+        <v>0.60870370370370364</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="46">
+        <v>0.60700231481481481</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="45">
+        <v>0.6052777777777778</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="46">
+        <v>0.6035300925925926</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="45">
+        <v>0.60175925925925922</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="46">
+        <v>0.59996527777777775</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="45">
+        <v>0.59815972222222225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="46">
+        <v>0.59634259259259259</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="45">
+        <v>0.59450231481481486</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="46">
+        <v>0.59263888888888883</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="45">
+        <v>0.59076388888888887</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="46">
+        <v>0.58887731481481487</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="45">
+        <v>0.58696759259259257</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="46">
+        <v>0.58504629629629623</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="45">
+        <v>0.58311342592592597</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="46">
+        <v>0.58116898148148144</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="45">
+        <v>0.57921296296296299</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="46">
+        <v>0.57724537037037038</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="45">
+        <v>0.57526620370370374</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="46">
+        <v>0.57327546296296295</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="45">
+        <v>0.57127314814814811</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="46">
+        <v>0.56925925925925924</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="45">
+        <v>0.56724537037037037</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="46">
+        <v>0.56520833333333331</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="45">
+        <v>0.56317129629629636</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="46">
+        <v>0.5611342592592593</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="45">
+        <v>0.55907407407407406</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="46">
+        <v>0.55701388888888892</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="47">
+        <v>0.55495370370370367</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="45">
+        <v>0.55287037037037035</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="46">
+        <v>0.55079861111111106</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="45">
+        <v>0.54870370370370369</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="46">
+        <v>0.54662037037037037</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="45">
+        <v>0.54451388888888885</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="46">
+        <v>0.54241898148148149</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="45">
+        <v>0.54031249999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="46">
+        <v>0.53819444444444442</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="45">
+        <v>0.53608796296296302</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="46">
+        <v>0.53395833333333331</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="45">
+        <v>0.53184027777777776</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="46">
+        <v>0.52971064814814817</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="45">
+        <v>0.52758101851851846</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="46">
+        <v>0.52545138888888887</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="45">
+        <v>0.52331018518518524</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="46">
+        <v>0.52118055555555554</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="45">
+        <v>0.51903935185185179</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="46">
+        <v>0.51689814814814816</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="45">
+        <v>0.51475694444444442</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="46">
+        <v>0.51261574074074068</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="45">
+        <v>0.51046296296296301</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="46">
+        <v>0.50832175925925926</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="45">
+        <v>0.50616898148148148</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="46">
+        <v>0.50402777777777774</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="45">
+        <v>0.50188657407407411</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="46">
+        <v>0.49973379629629627</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="45">
+        <v>0.49759259259259259</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="46">
+        <v>0.49543981481481486</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="45">
+        <v>0.49329861111111112</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="48">
+        <v>0.49115740740740743</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="45">
+        <v>0.48901620370370374</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="46">
+        <v>0.486875</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="45">
+        <v>0.48473379629629632</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="46">
+        <v>0.48259259259259263</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="45">
+        <v>0.48045138888888889</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="46">
+        <v>0.47832175925925924</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="45">
+        <v>0.47619212962962965</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="45">
+        <v>0.4740625</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="45">
+        <v>0.47193287037037041</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="46">
+        <v>0.46981481481481485</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="45">
+        <v>0.4676967592592593</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="46">
+        <v>0.46557870370370374</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="45">
+        <v>0.46347222222222223</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="46">
+        <v>0.46136574074074077</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="45">
+        <v>0.45927083333333335</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="46">
+        <v>0.45717592592592587</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="45">
+        <v>0.4550925925925926</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="46">
+        <v>0.45300925925925922</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="45">
+        <v>0.45093749999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="46">
+        <v>0.4488773148148148</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="45">
+        <v>0.44681712962962966</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="46">
+        <v>0.44476851851851856</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="45">
+        <v>0.4427314814814815</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="46">
+        <v>0.44070601851851854</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="46">
+        <v>0.43868055555555552</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="45">
+        <v>0.43667824074074074</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="46">
+        <v>0.43467592592592591</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="45">
+        <v>0.43268518518518517</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="46">
+        <v>0.43071759259259257</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="45">
+        <v>0.42874999999999996</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="48">
+        <v>0.4268055555555556</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="45">
+        <v>0.42487268518518517</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="46">
+        <v>0.42296296296296299</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="45">
+        <v>0.42105324074074074</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="46">
+        <v>0.41916666666666669</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="45">
+        <v>0.41730324074074071</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="46">
+        <v>0.41545138888888888</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="45">
+        <v>0.41362268518518519</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="46">
+        <v>0.41180555555555554</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="45">
+        <v>0.41001157407407413</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="46">
+        <v>0.40824074074074074</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="45">
+        <v>0.40649305555555554</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="46">
+        <v>0.40476851851851853</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="45">
+        <v>0.40306712962962959</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="46">
+        <v>0.401400462962963</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="45">
+        <v>0.39974537037037039</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="46">
+        <v>0.39812500000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="45">
+        <v>0.39652777777777781</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="46">
+        <v>0.39496527777777773</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="45">
+        <v>0.39343750000000005</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="46">
+        <v>0.39193287037037039</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="45">
+        <v>0.39046296296296296</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="46">
+        <v>0.38902777777777775</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="45">
+        <v>0.38761574074074073</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="46">
+        <v>0.38624999999999998</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="45">
+        <v>0.38491898148148151</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="46">
+        <v>0.38363425925925926</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="45">
+        <v>0.38237268518518519</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="46">
+        <v>0.38115740740740739</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="45">
+        <v>0.37998842592592591</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="48">
+        <v>0.37885416666666666</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="45">
+        <v>0.37776620370370373</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="46">
+        <v>0.37672453703703707</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="45">
+        <v>0.37571759259259258</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="46">
+        <v>0.37475694444444446</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="45">
+        <v>0.37385416666666665</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="46">
+        <v>0.37298611111111107</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="45">
+        <v>0.37217592592592591</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="46">
+        <v>0.37141203703703707</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="45">
+        <v>0.37069444444444444</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="46">
+        <v>0.37003472222222222</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="45">
+        <v>0.36942129629629633</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="46">
+        <v>0.36886574074074074</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="45">
+        <v>0.36835648148148148</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="46">
+        <v>0.36790509259259258</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="45">
+        <v>0.36749999999999999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="46">
+        <v>0.36715277777777783</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="45">
+        <v>0.36686342592592597</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="46">
+        <v>0.36663194444444441</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="45">
+        <v>0.36644675925925929</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="46">
+        <v>0.36631944444444442</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="45">
+        <v>0.36624999999999996</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="46">
+        <v>0.36623842592592593</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="45">
+        <v>0.3662731481481481</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="46">
+        <v>0.36637731481481484</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="45">
+        <v>0.36652777777777779</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="46">
+        <v>0.3667361111111111</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="45">
+        <v>0.36700231481481477</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="46">
+        <v>0.36731481481481482</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="45">
+        <v>0.36769675925925926</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="46">
+        <v>0.36812500000000004</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="47">
+        <v>0.36859953703703702</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -31871,8 +33736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31885,86 +33750,86 @@
       <c r="A1" s="11">
         <v>2015</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="30"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -33074,48 +34939,60 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35">
+      <c r="A31" s="23">
         <v>28</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="25">
         <v>0.4619907407407407</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="26">
         <v>0.19513888888888889</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="27">
         <v>0.79236111111111107</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="27">
         <v>0.21875</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="27">
         <v>0.76874999999999993</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="27">
         <v>0.24236111111111111</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="27">
         <v>0.74513888888888891</v>
       </c>
-      <c r="L31" s="40" t="s">
+      <c r="L31" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="M31" s="41">
+      <c r="M31" s="29">
         <v>148.18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -33123,18 +35000,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33144,8 +35009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33154,86 +35019,86 @@
       <c r="A1" s="11">
         <v>2015</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="30"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -33277,7 +35142,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42">
+      <c r="A5" s="30">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -34466,48 +36331,60 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35">
+      <c r="A34" s="23">
         <v>31</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="25">
         <v>0.52921296296296294</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="26">
         <v>0.19444444444444445</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="27">
         <v>0.86458333333333337</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="27">
         <v>0.22013888888888888</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I34" s="27">
         <v>0.83888888888888891</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="27">
         <v>0.24444444444444446</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34" s="27">
         <v>0.81458333333333333</v>
       </c>
-      <c r="L34" s="40" t="s">
+      <c r="L34" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="M34" s="41">
+      <c r="M34" s="29">
         <v>149.43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -34515,18 +36392,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34537,7 +36402,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="D33" sqref="D4:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34546,86 +36411,86 @@
       <c r="A1" s="11">
         <v>2015</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="30"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -35817,48 +37682,60 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35">
+      <c r="A33" s="23">
         <v>30</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="25">
         <v>0.59111111111111114</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="26">
         <v>0.14861111111111111</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="27">
         <v>0.90069444444444446</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="27">
         <v>0.17916666666666667</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="27">
         <v>0.87013888888888891</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="27">
         <v>0.20694444444444446</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="27">
         <v>0.84236111111111101</v>
       </c>
-      <c r="L33" s="40" t="s">
+      <c r="L33" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="M33" s="41">
+      <c r="M33" s="29">
         <v>150.678</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -35866,18 +37743,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35887,8 +37752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35897,86 +37762,86 @@
       <c r="A1" s="11">
         <v>2015</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="30"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -37251,6 +39116,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -37258,18 +39135,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37279,8 +39144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37289,86 +39154,86 @@
       <c r="A1" s="11">
         <v>2015</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="30"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -38560,48 +40425,60 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35">
+      <c r="A33" s="23">
         <v>30</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="24" t="s">
         <v>610</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="25">
         <v>0.64773148148148152</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="26">
         <v>0.10069444444444443</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="27">
         <v>0.95624999999999993</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="27">
         <v>0.1451388888888889</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="27">
         <v>0.91180555555555554</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="27">
         <v>0.17916666666666667</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="27">
         <v>0.87847222222222221</v>
       </c>
-      <c r="L33" s="40" t="s">
+      <c r="L33" s="28" t="s">
         <v>609</v>
       </c>
-      <c r="M33" s="41">
+      <c r="M33" s="29">
         <v>152.083</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -38609,18 +40486,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38631,7 +40496,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D4" sqref="D4:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38640,86 +40505,86 @@
       <c r="A1" s="11">
         <v>2015</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>612</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="30"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -39994,6 +41859,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -40001,18 +41878,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40022,8 +41887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40032,86 +41897,86 @@
       <c r="A1" s="11">
         <v>2015</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>724</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="30"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -41386,6 +43251,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -41393,18 +43270,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41414,8 +43279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41424,86 +43289,86 @@
       <c r="A1" s="11">
         <v>2015</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>838</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="30"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -42695,48 +44560,60 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35">
+      <c r="A33" s="23">
         <v>30</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="24" t="s">
         <v>930</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="24" t="s">
         <v>931</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="25">
         <v>0.49115740740740743</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="24" t="s">
         <v>898</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="26">
         <v>0.20555555555555557</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="27">
         <v>0.83263888888888893</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="27">
         <v>0.2298611111111111</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="27">
         <v>0.80833333333333324</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="27">
         <v>0.25347222222222221</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="27">
         <v>0.78472222222222221</v>
       </c>
-      <c r="L33" s="40" t="s">
+      <c r="L33" s="28" t="s">
         <v>932</v>
       </c>
-      <c r="M33" s="41">
+      <c r="M33" s="29">
         <v>149.82400000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -42744,18 +44621,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
